--- a/quality/sca/documentation/eoos-if-win32-report.xlsx
+++ b/quality/sca/documentation/eoos-if-win32-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\issw\sim\codebase\lib-eoos-win32\quality\sca\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC6801-C02C-467B-BE5D-95BAE043323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C95163-D532-4FA9-8F27-C90BDC234ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="963">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -3190,16 +3190,30 @@
   <si>
     <t>CW21 22</t>
   </si>
+  <si>
+    <t>sca/CW21.1-22</t>
+  </si>
+  <si>
+    <t>7fbb74f3ac8ffcc5cafb0d9c08d00ede8de76bf2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3420,60 +3434,33 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3483,37 +3470,64 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3530,56 +3544,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3809,50 +3823,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="1">
         <f>Violations!$G$539</f>
         <v>49</v>
@@ -3860,20 +3874,20 @@
       <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1">
         <f>Violations!$G$546</f>
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="2">
         <f>Violations!$G$549</f>
         <v>0</v>
@@ -4938,14 +4952,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -4955,14 +4969,14 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4972,14 +4986,14 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4989,14 +5003,14 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -5023,15 +5037,17 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>961</v>
+      </c>
       <c r="H6" s="16" t="s">
         <v>949</v>
       </c>
@@ -5040,15 +5056,17 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>962</v>
+      </c>
       <c r="H7" s="16" t="s">
         <v>948</v>
       </c>
@@ -5057,10 +5075,10 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -7619,7 +7637,7 @@
       <c r="I104" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="J104" s="62" t="s">
+      <c r="J104" s="54" t="s">
         <v>954</v>
       </c>
       <c r="K104" s="38"/>
@@ -12289,13 +12307,13 @@
       <c r="B278" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C278" s="63" t="s">
+      <c r="C278" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D278" s="63" t="s">
+      <c r="D278" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E278" s="63" t="s">
+      <c r="E278" s="55" t="s">
         <v>11</v>
       </c>
       <c r="F278" s="42">
@@ -12310,7 +12328,7 @@
       <c r="I278" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="J278" s="64" t="s">
+      <c r="J278" s="56" t="s">
         <v>956</v>
       </c>
       <c r="K278" s="38"/>
@@ -12790,13 +12808,13 @@
       <c r="B296" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C296" s="63" t="s">
+      <c r="C296" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D296" s="63" t="s">
+      <c r="D296" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E296" s="63" t="s">
+      <c r="E296" s="55" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="42">
@@ -12811,7 +12829,7 @@
       <c r="I296" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="J296" s="62" t="s">
+      <c r="J296" s="54" t="s">
         <v>957</v>
       </c>
       <c r="K296" s="38"/>
@@ -13273,13 +13291,13 @@
       <c r="B315" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D315" s="66" t="s">
+      <c r="D315" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E315" s="67" t="s">
+      <c r="E315" s="59" t="s">
         <v>11</v>
       </c>
       <c r="F315" s="42">
@@ -17743,13 +17761,13 @@
       <c r="B488" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C488" s="65" t="s">
+      <c r="C488" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D488" s="65" t="s">
+      <c r="D488" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E488" s="65" t="s">
+      <c r="E488" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F488" s="42">
